--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Spp1-Itgb3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H2">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I2">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J2">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>54.870358259442</v>
+        <v>92.72423679241332</v>
       </c>
       <c r="R2">
-        <v>493.833224334978</v>
+        <v>834.5181311317199</v>
       </c>
       <c r="S2">
-        <v>0.002838206434077072</v>
+        <v>0.003574645060491556</v>
       </c>
       <c r="T2">
-        <v>0.00295730788113146</v>
+        <v>0.003710029693106535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H3">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I3">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J3">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>35.47704874144934</v>
+        <v>42.585574175288</v>
       </c>
       <c r="R3">
-        <v>319.293438673044</v>
+        <v>383.270167577592</v>
       </c>
       <c r="S3">
-        <v>0.001835074367911943</v>
+        <v>0.001641731629613643</v>
       </c>
       <c r="T3">
-        <v>0.001912080751255514</v>
+        <v>0.001703909896201339</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H4">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I4">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J4">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>2.086970739327222</v>
+        <v>3.446650185375333</v>
       </c>
       <c r="R4">
-        <v>18.782736653945</v>
+        <v>31.019851668378</v>
       </c>
       <c r="S4">
-        <v>0.0001079499745943401</v>
+        <v>0.0001328730382324625</v>
       </c>
       <c r="T4">
-        <v>0.0001124799474776731</v>
+        <v>0.0001379054168773689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>11.50786633333333</v>
+        <v>13.813694</v>
       </c>
       <c r="H5">
-        <v>34.523599</v>
+        <v>41.441082</v>
       </c>
       <c r="I5">
-        <v>0.005443852207333851</v>
+        <v>0.00564671359801415</v>
       </c>
       <c r="J5">
-        <v>0.005515849947528557</v>
+        <v>0.005783813933563532</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>8.708175072428332</v>
+        <v>5.755427257171</v>
       </c>
       <c r="R5">
-        <v>52.24905043456999</v>
+        <v>34.532563543026</v>
       </c>
       <c r="S5">
-        <v>0.0004504362519882517</v>
+        <v>0.0002218795250040614</v>
       </c>
       <c r="T5">
-        <v>0.0003128921283898407</v>
+        <v>0.0001535219324114275</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>13.813694</v>
+      </c>
+      <c r="H6">
+        <v>41.441082</v>
+      </c>
+      <c r="I6">
+        <v>0.00564671359801415</v>
+      </c>
+      <c r="J6">
+        <v>0.005783813933563532</v>
+      </c>
+      <c r="K6">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="L6">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G6">
-        <v>11.50786633333333</v>
-      </c>
-      <c r="H6">
-        <v>34.523599</v>
-      </c>
-      <c r="I6">
-        <v>0.005443852207333851</v>
-      </c>
-      <c r="J6">
-        <v>0.005515849947528557</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>4.102124720823555</v>
+        <v>1.960614425937333</v>
       </c>
       <c r="R6">
-        <v>36.919122487412</v>
+        <v>17.645529833436</v>
       </c>
       <c r="S6">
-        <v>0.0002121851787622432</v>
+        <v>7.558434467242562E-05</v>
       </c>
       <c r="T6">
-        <v>0.0002210892392740695</v>
+        <v>7.844699496686159E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
         <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J7">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>289.476021895656</v>
+        <v>407.5238633658578</v>
       </c>
       <c r="R7">
-        <v>2605.284197060904</v>
+        <v>3667.71477029272</v>
       </c>
       <c r="S7">
-        <v>0.01497334323881342</v>
+        <v>0.01571059752666943</v>
       </c>
       <c r="T7">
-        <v>0.01560167908696487</v>
+        <v>0.01630561421736639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
         <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J8">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>187.1639855113547</v>
@@ -948,10 +948,10 @@
         <v>1684.475869602192</v>
       </c>
       <c r="S8">
-        <v>0.009681183880632398</v>
+        <v>0.0072154254319494</v>
       </c>
       <c r="T8">
-        <v>0.01008744150711751</v>
+        <v>0.007488699478668576</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
         <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J9">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>11.01009737491778</v>
+        <v>15.14805888733645</v>
       </c>
       <c r="R9">
-        <v>99.09087637425999</v>
+        <v>136.332529986028</v>
       </c>
       <c r="S9">
-        <v>0.0005695047417323806</v>
+        <v>0.0005839782105608326</v>
       </c>
       <c r="T9">
-        <v>0.0005934032284774854</v>
+        <v>0.0006060955604386577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
         <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J10">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>45.94115945112667</v>
+        <v>25.29515509967934</v>
       </c>
       <c r="R10">
-        <v>275.64695670676</v>
+        <v>151.770930598076</v>
       </c>
       <c r="S10">
-        <v>0.002376337579693331</v>
+        <v>0.0009751625287988867</v>
       </c>
       <c r="T10">
-        <v>0.001650704888429811</v>
+        <v>0.0006747302881312686</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.71131066666666</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
         <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.02871978114879023</v>
+        <v>0.02481735757971244</v>
       </c>
       <c r="J11">
-        <v>0.02909961499858024</v>
+        <v>0.02541991480039814</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>21.64131569706844</v>
+        <v>8.616918219748445</v>
       </c>
       <c r="R11">
-        <v>194.771841273616</v>
+        <v>77.552263977736</v>
       </c>
       <c r="S11">
-        <v>0.001119411707918698</v>
+        <v>0.0003321938817338826</v>
       </c>
       <c r="T11">
-        <v>0.001166386287590558</v>
+        <v>0.0003447752557932419</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H12">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I12">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J12">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>5453.338060547809</v>
+        <v>3500.811029059103</v>
       </c>
       <c r="R12">
-        <v>49080.04254493028</v>
+        <v>31507.29926153193</v>
       </c>
       <c r="S12">
-        <v>0.2820776036755837</v>
+        <v>0.1349610121974538</v>
       </c>
       <c r="T12">
-        <v>0.2939146041051599</v>
+        <v>0.1400724699070999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H13">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I13">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J13">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>3525.917204019051</v>
+        <v>1607.821783267143</v>
       </c>
       <c r="R13">
-        <v>31733.25483617146</v>
+        <v>14470.39604940428</v>
       </c>
       <c r="S13">
-        <v>0.1823804548013476</v>
+        <v>0.06198370991797549</v>
       </c>
       <c r="T13">
-        <v>0.1900338008795166</v>
+        <v>0.06433125538146958</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H14">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I14">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J14">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>207.4153937579645</v>
+        <v>130.1285553774201</v>
       </c>
       <c r="R14">
-        <v>1866.73854382168</v>
+        <v>1171.156998396781</v>
       </c>
       <c r="S14">
-        <v>0.01072870168455996</v>
+        <v>0.005016632261424623</v>
       </c>
       <c r="T14">
-        <v>0.01117891696147003</v>
+        <v>0.005206630122522483</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H15">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I15">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J15">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>865.4695188219467</v>
+        <v>217.2966196956628</v>
       </c>
       <c r="R15">
-        <v>5192.817112931681</v>
+        <v>1303.779718173977</v>
       </c>
       <c r="S15">
-        <v>0.04476699687659405</v>
+        <v>0.008377079338982142</v>
       </c>
       <c r="T15">
-        <v>0.03109705507163354</v>
+        <v>0.005796232924425276</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1143.719258666667</v>
+        <v>521.5371296666666</v>
       </c>
       <c r="H16">
-        <v>3431.157776</v>
+        <v>1564.611389</v>
       </c>
       <c r="I16">
-        <v>0.541041964732249</v>
+        <v>0.2131921267372822</v>
       </c>
       <c r="J16">
-        <v>0.5481975224747514</v>
+        <v>0.2183683609494171</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>407.6932168623431</v>
+        <v>74.02315557926912</v>
       </c>
       <c r="R16">
-        <v>3669.238951761088</v>
+        <v>666.208400213422</v>
       </c>
       <c r="S16">
-        <v>0.02108820769416366</v>
+        <v>0.002853693021446173</v>
       </c>
       <c r="T16">
-        <v>0.02197314545697128</v>
+        <v>0.002961772613899833</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H17">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I17">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J17">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>394.6927476853531</v>
+        <v>1167.731419804227</v>
       </c>
       <c r="R17">
-        <v>2368.156486112118</v>
+        <v>7006.388518825359</v>
       </c>
       <c r="S17">
-        <v>0.02041574962327427</v>
+        <v>0.04501762965306504</v>
       </c>
       <c r="T17">
-        <v>0.01418164573589203</v>
+        <v>0.03114840586031549</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H18">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I18">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J18">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>255.1930457847941</v>
+        <v>536.305444133416</v>
       </c>
       <c r="R18">
-        <v>1531.158274708764</v>
+        <v>3217.832664800496</v>
       </c>
       <c r="S18">
-        <v>0.01320003308623363</v>
+        <v>0.02067530209041422</v>
       </c>
       <c r="T18">
-        <v>0.009169302934515322</v>
+        <v>0.01430556663600355</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H19">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I19">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J19">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>15.01197079029917</v>
+        <v>43.40571412356066</v>
       </c>
       <c r="R19">
-        <v>90.071824741795</v>
+        <v>260.434284741364</v>
       </c>
       <c r="S19">
-        <v>0.0007765043538397602</v>
+        <v>0.001673349136712332</v>
       </c>
       <c r="T19">
-        <v>0.0005393928639279183</v>
+        <v>0.001157816581148571</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H20">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I20">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J20">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>62.63953171966751</v>
+        <v>72.481515891497</v>
       </c>
       <c r="R20">
-        <v>250.55812687867</v>
+        <v>289.926063565988</v>
       </c>
       <c r="S20">
-        <v>0.003240072191869503</v>
+        <v>0.002794260721051081</v>
       </c>
       <c r="T20">
-        <v>0.001500461060103169</v>
+        <v>0.001288928621810292</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>82.77823450000001</v>
+        <v>173.964058</v>
       </c>
       <c r="H21">
-        <v>165.556469</v>
+        <v>347.928116</v>
       </c>
       <c r="I21">
-        <v>0.03915864692455941</v>
+        <v>0.07111242017336726</v>
       </c>
       <c r="J21">
-        <v>0.02645102675554375</v>
+        <v>0.04855933745164542</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N21">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O21">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P21">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q21">
-        <v>29.50735021182867</v>
+        <v>24.69118265609467</v>
       </c>
       <c r="R21">
-        <v>177.044101270972</v>
+        <v>148.147095936568</v>
       </c>
       <c r="S21">
-        <v>0.001526287669342242</v>
+        <v>0.0009518785721245775</v>
       </c>
       <c r="T21">
-        <v>0.001060224161105309</v>
+        <v>0.0006586197523675089</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H22">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I22">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J22">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N22">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O22">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P22">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q22">
-        <v>3886.948291006962</v>
+        <v>11252.13025436797</v>
       </c>
       <c r="R22">
-        <v>34982.53461906266</v>
+        <v>101269.1722893117</v>
       </c>
       <c r="S22">
-        <v>0.2010550322324982</v>
+        <v>0.4337848789613877</v>
       </c>
       <c r="T22">
-        <v>0.2094920313841276</v>
+        <v>0.450213868547292</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H23">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I23">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J23">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O23">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P23">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q23">
-        <v>2513.150239033076</v>
+        <v>5167.779689038063</v>
       </c>
       <c r="R23">
-        <v>22618.35215129768</v>
+        <v>46510.01720134256</v>
       </c>
       <c r="S23">
-        <v>0.1299943977857772</v>
+        <v>0.1992249144146092</v>
       </c>
       <c r="T23">
-        <v>0.1354494347060512</v>
+        <v>0.2067702766503953</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H24">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I24">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J24">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N24">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O24">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P24">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q24">
-        <v>147.8384250792383</v>
+        <v>418.2526399641167</v>
       </c>
       <c r="R24">
-        <v>1330.545825713145</v>
+        <v>3764.273759677051</v>
       </c>
       <c r="S24">
-        <v>0.007647042639666235</v>
+        <v>0.01612420641253111</v>
       </c>
       <c r="T24">
-        <v>0.007967940314033962</v>
+        <v>0.01673488795557315</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H25">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I25">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J25">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N25">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O25">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P25">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q25">
-        <v>616.876347982295</v>
+        <v>698.4238361779279</v>
       </c>
       <c r="R25">
-        <v>3701.25808789377</v>
+        <v>4190.543017067567</v>
       </c>
       <c r="S25">
-        <v>0.03190834679071988</v>
+        <v>0.02692518593291098</v>
       </c>
       <c r="T25">
-        <v>0.02216489125082652</v>
+        <v>0.01862995954620785</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>815.2030129999999</v>
+        <v>1676.298339666667</v>
       </c>
       <c r="H26">
-        <v>2445.609039</v>
+        <v>5028.895019</v>
       </c>
       <c r="I26">
-        <v>0.3856357549870674</v>
+        <v>0.685231381911624</v>
       </c>
       <c r="J26">
-        <v>0.3907359858235961</v>
+        <v>0.7018685728649758</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N26">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O26">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P26">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q26">
-        <v>290.5894398886813</v>
+        <v>237.9214934777958</v>
       </c>
       <c r="R26">
-        <v>2615.304958998132</v>
+        <v>2141.293441300162</v>
       </c>
       <c r="S26">
-        <v>0.01503093553840585</v>
+        <v>0.00917219619018491</v>
       </c>
       <c r="T26">
-        <v>0.01566168816855677</v>
+        <v>0.00951958016550746</v>
       </c>
     </row>
   </sheetData>
